--- a/results/by_outcome/full_results_health_pc_observed.xlsx
+++ b/results/by_outcome/full_results_health_pc_observed.xlsx
@@ -471,32 +471,32 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>0.854622234587759</v>
+        <v>0.908941580497606</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14545799008739</v>
+        <v>0.0911546741138437</v>
       </c>
       <c r="E2" t="n">
-        <v>1.00008022467515</v>
+        <v>1.00009625461145</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.145446321703479</v>
+        <v>0.0911459009005673</v>
       </c>
       <c r="K2" t="n">
-        <v>0.132741670182666</v>
+        <v>0.0943672761142998</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.000935227147742427</v>
+        <v>0.00261650202457523</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0298918085108694</v>
+        <v>0.0370888117502591</v>
       </c>
       <c r="N2" t="n">
-        <v>0.131806443034923</v>
+        <v>0.0969837781388751</v>
       </c>
       <c r="O2"/>
     </row>
@@ -511,10 +511,10 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.823792725840226</v>
+        <v>0.874465952653143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.132752319340035</v>
+        <v>0.0943763593997957</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -538,10 +538,10 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>0.824728028016263</v>
+        <v>0.871849198778182</v>
       </c>
       <c r="I4" t="n">
-        <v>0.123595070090363</v>
+        <v>0.0876149474324018</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -549,7 +549,7 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.175338130214349</v>
+        <v>0.128234712650826</v>
       </c>
     </row>
   </sheetData>
@@ -594,16 +594,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145446321703479</v>
+        <v>0.0911459009005673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.105790416484029</v>
+        <v>0.0360600100989626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18510222692293</v>
+        <v>0.146231791702172</v>
       </c>
       <c r="F2" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
@@ -614,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.131806443034923</v>
+        <v>0.0969837781388751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0871084917330347</v>
+        <v>0.0212652213961603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.176504394336812</v>
+        <v>0.17270233488159</v>
       </c>
       <c r="F3" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
@@ -634,16 +634,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.175338130214349</v>
+        <v>0.128234712650826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.117813086074642</v>
+        <v>0.0381265753423746</v>
       </c>
       <c r="E4" t="n">
-        <v>0.232863174354055</v>
+        <v>0.218342849959278</v>
       </c>
       <c r="F4" t="n">
-        <v>1814</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_health_pc_observed.xlsx
+++ b/results/by_outcome/full_results_health_pc_observed.xlsx
@@ -597,10 +597,10 @@
         <v>0.0911459009005673</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0360600100989626</v>
+        <v>0.0461968780928217</v>
       </c>
       <c r="E2" t="n">
-        <v>0.146231791702172</v>
+        <v>0.136094923708313</v>
       </c>
       <c r="F2" t="n">
         <v>948</v>
@@ -617,10 +617,10 @@
         <v>0.0969837781388751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0212652213961603</v>
+        <v>0.0453004886239722</v>
       </c>
       <c r="E3" t="n">
-        <v>0.17270233488159</v>
+        <v>0.148667067653778</v>
       </c>
       <c r="F3" t="n">
         <v>948</v>
@@ -637,10 +637,10 @@
         <v>0.128234712650826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0381265753423746</v>
+        <v>0.0712061002463234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.218342849959278</v>
+        <v>0.185263325055329</v>
       </c>
       <c r="F4" t="n">
         <v>948</v>
